--- a/data/ExpEvo_meta.xlsx
+++ b/data/ExpEvo_meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/CompEvoBio_modules/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A039E1C-D405-2440-BD68-B05F1A51C89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4F9180-14F7-C147-A5E2-E99471A062AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3100" yWindow="3320" windowWidth="46440" windowHeight="24060" activeTab="6" xr2:uid="{4995BC95-77E8-9B4E-9CFD-6B352F1C10AE}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="641">
   <si>
     <t>ExpEvo_SRP002024_ACO_1_1975-MM-DD</t>
   </si>
@@ -2433,7 +2433,7 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U9"/>
+      <selection activeCell="R2" sqref="R2:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2565,10 +2565,10 @@
         <v>1</v>
       </c>
       <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
         <v>25</v>
-      </c>
-      <c r="S2" t="s">
-        <v>7</v>
       </c>
       <c r="T2" t="s">
         <v>8</v>
@@ -2639,10 +2639,10 @@
         <v>1</v>
       </c>
       <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
         <v>25</v>
-      </c>
-      <c r="S3" t="s">
-        <v>7</v>
       </c>
       <c r="T3" t="s">
         <v>8</v>
@@ -2713,10 +2713,10 @@
         <v>1</v>
       </c>
       <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
         <v>25</v>
-      </c>
-      <c r="S4" t="s">
-        <v>7</v>
       </c>
       <c r="T4" t="s">
         <v>8</v>
@@ -2787,10 +2787,10 @@
         <v>1</v>
       </c>
       <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>25</v>
-      </c>
-      <c r="S5" t="s">
-        <v>7</v>
       </c>
       <c r="T5" t="s">
         <v>8</v>
@@ -2861,10 +2861,10 @@
         <v>1</v>
       </c>
       <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
         <v>25</v>
-      </c>
-      <c r="S6" t="s">
-        <v>7</v>
       </c>
       <c r="T6" t="s">
         <v>8</v>
@@ -2935,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
         <v>25</v>
-      </c>
-      <c r="S7" t="s">
-        <v>7</v>
       </c>
       <c r="T7" t="s">
         <v>8</v>
@@ -3009,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>25</v>
-      </c>
-      <c r="S8" t="s">
-        <v>7</v>
       </c>
       <c r="T8" t="s">
         <v>8</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
         <v>25</v>
-      </c>
-      <c r="S9" t="s">
-        <v>7</v>
       </c>
       <c r="T9" t="s">
         <v>8</v>
@@ -12903,6 +12903,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
